--- a/data/trans_orig/IMC_CAT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_CAT-Edad-trans_orig.xlsx
@@ -3925,12 +3925,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -3940,12 +3940,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -7013,12 +7013,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -7028,12 +7028,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -7582,12 +7582,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3098</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -7597,12 +7597,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -11808,12 +11808,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1214</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -11823,12 +11823,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -12377,12 +12377,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -12392,12 +12392,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -12946,12 +12946,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -12961,12 +12961,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -13515,12 +13515,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -13530,12 +13530,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -18310,12 +18310,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -18325,12 +18325,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">

--- a/data/trans_orig/IMC_CAT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_CAT-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grado de obesidad del entrevistado en País Vasco</t>
+          <t>Grado de obesidad del entrevistado en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5341,7 +5341,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grado de obesidad del entrevistado en Andalucia</t>
+          <t>Grado de obesidad del entrevistado en Andalucia (tasa de respuesta: 96,4%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -10136,7 +10136,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grado de obesidad del entrevistado en C.Valenciana</t>
+          <t>Grado de obesidad del entrevistado en C.Valenciana (tasa de respuesta: 98,07%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -14931,7 +14931,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Grado de obesidad del entrevistado en Barcelona</t>
+          <t>Grado de obesidad del entrevistado en Barcelona (tasa de respuesta: 94,22%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC_CAT-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_CAT-Edad-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>5525</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>2269</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3076</t>
+          <t>12071</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>446</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1518</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>2109</t>
+          <t>7073</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>3513</t>
+          <t>15937</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>11,33%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4351</t>
+          <t>12010</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2982</t>
+          <t>7600</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6208</t>
+          <t>17698</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2978</t>
+          <t>9168</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1759</t>
+          <t>5133</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4761</t>
+          <t>14898</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>7329</t>
+          <t>21178</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>5290</t>
+          <t>15442</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>9820</t>
+          <t>29981</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>21,31%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18035</t>
+          <t>49645</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15843</t>
+          <t>42515</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19892</t>
+          <t>55035</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>70,72%</t>
+          <t>71,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>62,12%</t>
+          <t>61,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>78,0%</t>
+          <t>79,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18319</t>
+          <t>56935</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16494</t>
+          <t>50590</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19999</t>
+          <t>61574</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>77,64%</t>
+          <t>79,71%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>69,91%</t>
+          <t>70,83%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>84,76%</t>
+          <t>86,21%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>36353</t>
+          <t>106579</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>33494</t>
+          <t>96994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>39013</t>
+          <t>114125</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>74,05%</t>
+          <t>75,75%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>68,22%</t>
+          <t>68,94%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>79,46%</t>
+          <t>81,12%</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1075,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1622</t>
+          <t>2087</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>803</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3470</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,32 +1110,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1682</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>1677</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2865</t>
+          <t>7578</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>3304</t>
+          <t>5862</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>2045</t>
+          <t>3236</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>5406</t>
+          <t>9978</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>7,09%</t>
         </is>
       </c>
     </row>
@@ -1188,17 +1188,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25502</t>
+          <t>69267</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25502</t>
+          <t>69267</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25502</t>
+          <t>69267</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1223,17 +1223,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23594</t>
+          <t>71426</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23594</t>
+          <t>71426</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>23594</t>
+          <t>71426</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>49095</t>
+          <t>140692</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>49095</t>
+          <t>140692</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>49095</t>
+          <t>140692</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1826</t>
+          <t>6605</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1045</t>
+          <t>3444</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3048</t>
+          <t>11791</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3577</t>
+          <t>9570</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2146</t>
+          <t>5454</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>15474</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>5403</t>
+          <t>16175</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>3666</t>
+          <t>11122</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>7765</t>
+          <t>23408</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>12,84%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7805</t>
+          <t>29754</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>21564</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10393</t>
+          <t>38449</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>42,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6354</t>
+          <t>19476</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4686</t>
+          <t>13689</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8743</t>
+          <t>27281</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>29,93%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>14160</t>
+          <t>49230</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>11289</t>
+          <t>38381</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>17470</t>
+          <t>61026</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>33,47%</t>
         </is>
       </c>
     </row>
@@ -1531,32 +1531,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19053</t>
+          <t>54547</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16331</t>
+          <t>46384</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21203</t>
+          <t>63084</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,0%</t>
+          <t>59,82%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,57%</t>
+          <t>50,87%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>73,45%</t>
+          <t>69,18%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1566,32 +1566,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20616</t>
+          <t>58985</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18072</t>
+          <t>51091</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22904</t>
+          <t>66340</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>63,99%</t>
+          <t>64,71%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>56,1%</t>
+          <t>56,05%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>71,1%</t>
+          <t>72,78%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1601,32 +1601,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>39668</t>
+          <t>113532</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>36312</t>
+          <t>100907</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>43204</t>
+          <t>124758</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>64,94%</t>
+          <t>62,26%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>59,45%</t>
+          <t>55,34%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>70,73%</t>
+          <t>68,42%</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>278</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1654,12 +1654,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>1381</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,32 +1679,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1668</t>
+          <t>3125</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>1351</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>6219</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>1853</t>
+          <t>3403</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>1699</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>3521</t>
+          <t>6568</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1757,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28869</t>
+          <t>91184</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28869</t>
+          <t>91184</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28869</t>
+          <t>91184</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32215</t>
+          <t>91156</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>32215</t>
+          <t>91156</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>32215</t>
+          <t>91156</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1827,17 +1827,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>61084</t>
+          <t>182341</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>61084</t>
+          <t>182341</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>61084</t>
+          <t>182341</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7772</t>
+          <t>18119</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5655</t>
+          <t>12859</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10388</t>
+          <t>24740</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6789</t>
+          <t>21669</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4836</t>
+          <t>15303</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>9177</t>
+          <t>28865</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>14561</t>
+          <t>39787</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>11625</t>
+          <t>31087</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>18387</t>
+          <t>49586</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>19,47%</t>
         </is>
       </c>
     </row>
@@ -1987,32 +1987,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18450</t>
+          <t>49929</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15521</t>
+          <t>41569</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21468</t>
+          <t>58543</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>38,81%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,99%</t>
+          <t>32,32%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>45,62%</t>
+          <t>45,51%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2022,32 +2022,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11338</t>
+          <t>28791</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8896</t>
+          <t>21761</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14091</t>
+          <t>36433</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>28,89%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2057,32 +2057,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>29788</t>
+          <t>78719</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>25803</t>
+          <t>67848</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>33734</t>
+          <t>90544</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>34,29%</t>
+          <t>35,55%</t>
         </is>
       </c>
     </row>
@@ -2100,32 +2100,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>20721</t>
+          <t>60237</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17767</t>
+          <t>51660</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23653</t>
+          <t>68762</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>44,04%</t>
+          <t>46,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>37,76%</t>
+          <t>40,16%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>50,27%</t>
+          <t>53,45%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2135,32 +2135,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>30495</t>
+          <t>70899</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>27283</t>
+          <t>62544</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>33468</t>
+          <t>79118</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>59,43%</t>
+          <t>56,23%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>53,17%</t>
+          <t>49,6%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>65,22%</t>
+          <t>62,75%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2170,32 +2170,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>51217</t>
+          <t>131136</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>47117</t>
+          <t>119285</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>55838</t>
+          <t>142846</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>52,07%</t>
+          <t>51,48%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>47,9%</t>
+          <t>46,83%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>56,76%</t>
+          <t>56,08%</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>351</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2248,32 +2248,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2693</t>
+          <t>4733</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>2490</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4436</t>
+          <t>8045</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2283,32 +2283,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>2803</t>
+          <t>5084</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>1590</t>
+          <t>2811</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>4650</t>
+          <t>8993</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -2326,17 +2326,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>47053</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>47053</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>47053</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2361,17 +2361,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>51316</t>
+          <t>126091</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>51316</t>
+          <t>126091</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>51316</t>
+          <t>126091</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>98369</t>
+          <t>254727</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>98369</t>
+          <t>254727</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>98369</t>
+          <t>254727</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14522</t>
+          <t>30696</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11384</t>
+          <t>23375</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17511</t>
+          <t>38252</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2478,32 +2478,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9608</t>
+          <t>18990</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7119</t>
+          <t>13853</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12487</t>
+          <t>25230</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2513,32 +2513,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>24130</t>
+          <t>49686</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>20301</t>
+          <t>41345</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>28266</t>
+          <t>60433</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>19,99%</t>
         </is>
       </c>
     </row>
@@ -2556,32 +2556,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>33337</t>
+          <t>68650</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>29603</t>
+          <t>60389</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>37198</t>
+          <t>77532</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>46,3%</t>
+          <t>45,34%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>41,12%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>51,66%</t>
+          <t>51,2%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2591,32 +2591,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>21776</t>
+          <t>44764</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>18361</t>
+          <t>37714</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>25242</t>
+          <t>53457</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>25,0%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>34,31%</t>
+          <t>35,44%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2626,32 +2626,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>55114</t>
+          <t>113415</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>49668</t>
+          <t>100151</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>60292</t>
+          <t>125313</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>37,52%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>34,12%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>41,42%</t>
+          <t>41,46%</t>
         </is>
       </c>
     </row>
@@ -2669,32 +2669,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>24045</t>
+          <t>51612</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>20473</t>
+          <t>43822</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>27639</t>
+          <t>61107</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>28,94%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>38,39%</t>
+          <t>40,36%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2704,32 +2704,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>40112</t>
+          <t>83545</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>36342</t>
+          <t>75240</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>44071</t>
+          <t>91660</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>54,52%</t>
+          <t>55,38%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>49,39%</t>
+          <t>49,88%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>59,9%</t>
+          <t>60,76%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2739,32 +2739,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>64157</t>
+          <t>135157</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>58901</t>
+          <t>123030</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>69944</t>
+          <t>147650</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>44,71%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>40,7%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>48,05%</t>
+          <t>48,85%</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>466</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -2792,12 +2792,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>2316</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2817,32 +2817,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>2080</t>
+          <t>3545</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>3734</t>
+          <t>7071</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>2174</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>2057</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>3540</t>
+          <t>7803</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,58%</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2895,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>71999</t>
+          <t>151424</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>71999</t>
+          <t>151424</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>71999</t>
+          <t>151424</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>73576</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>73576</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>73576</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2965,17 +2965,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>145575</t>
+          <t>302269</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>145575</t>
+          <t>302269</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>145575</t>
+          <t>302269</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3012,32 +3012,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>12180</t>
+          <t>19600</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>9440</t>
+          <t>15226</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>15149</t>
+          <t>25247</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3047,32 +3047,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>11886</t>
+          <t>19396</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>9112</t>
+          <t>15154</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>14772</t>
+          <t>24746</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3082,32 +3082,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>24067</t>
+          <t>38996</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>19771</t>
+          <t>32032</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>27955</t>
+          <t>46600</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>17,23%</t>
         </is>
       </c>
     </row>
@@ -3125,32 +3125,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>32265</t>
+          <t>67005</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>28740</t>
+          <t>59418</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>36347</t>
+          <t>75062</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>47,59%</t>
+          <t>51,6%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>42,39%</t>
+          <t>45,76%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>53,61%</t>
+          <t>57,8%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3160,32 +3160,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>23962</t>
+          <t>44534</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>20493</t>
+          <t>38401</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>27399</t>
+          <t>52590</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>33,63%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3195,32 +3195,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>56227</t>
+          <t>111539</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>51325</t>
+          <t>100500</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>61876</t>
+          <t>122982</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>37,67%</t>
+          <t>41,24%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>37,16%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>45,47%</t>
         </is>
       </c>
     </row>
@@ -3238,32 +3238,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>22984</t>
+          <t>42738</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>19415</t>
+          <t>35835</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>26621</t>
+          <t>50228</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>33,9%</t>
+          <t>32,91%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>39,27%</t>
+          <t>38,68%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3273,32 +3273,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>44665</t>
+          <t>75262</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>40520</t>
+          <t>66644</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>48509</t>
+          <t>82309</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>54,82%</t>
+          <t>53,53%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>49,73%</t>
+          <t>47,4%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>59,54%</t>
+          <t>58,54%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3308,32 +3308,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>67649</t>
+          <t>118000</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>62286</t>
+          <t>107471</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>73133</t>
+          <t>129316</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>45,32%</t>
+          <t>43,63%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>41,73%</t>
+          <t>39,74%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>48,99%</t>
+          <t>47,81%</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>512</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>1758</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3386,32 +3386,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>966</t>
+          <t>1413</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>473</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2142</t>
+          <t>3314</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3421,32 +3421,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1333</t>
+          <t>1926</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>844</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>2712</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,49%</t>
         </is>
       </c>
     </row>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>67797</t>
+          <t>129856</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>67797</t>
+          <t>129856</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>67797</t>
+          <t>129856</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3499,17 +3499,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>81479</t>
+          <t>140606</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>81479</t>
+          <t>140606</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>81479</t>
+          <t>140606</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3534,17 +3534,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>149276</t>
+          <t>270461</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>149276</t>
+          <t>270461</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>149276</t>
+          <t>270461</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3581,32 +3581,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>12988</t>
+          <t>18452</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>10224</t>
+          <t>14389</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>16168</t>
+          <t>23235</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3616,32 +3616,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12034</t>
+          <t>19907</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>9468</t>
+          <t>15230</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>15114</t>
+          <t>24917</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3651,32 +3651,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>25023</t>
+          <t>38359</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>20876</t>
+          <t>32332</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>28951</t>
+          <t>44798</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>21,54%</t>
         </is>
       </c>
     </row>
@@ -3694,32 +3694,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>28233</t>
+          <t>46720</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>25113</t>
+          <t>41073</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>31567</t>
+          <t>52487</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>46,6%</t>
+          <t>48,58%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>42,71%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>52,1%</t>
+          <t>54,58%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3729,32 +3729,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>24256</t>
+          <t>41349</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>20606</t>
+          <t>34753</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>27416</t>
+          <t>48403</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>37,0%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>30,0%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>39,91%</t>
+          <t>43,31%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3764,32 +3764,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>52489</t>
+          <t>88070</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>47641</t>
+          <t>78853</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>57110</t>
+          <t>95802</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>42,36%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>44,17%</t>
+          <t>46,07%</t>
         </is>
       </c>
     </row>
@@ -3807,32 +3807,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>19365</t>
+          <t>30998</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>16436</t>
+          <t>25889</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>22592</t>
+          <t>36747</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>38,21%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3842,32 +3842,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>31068</t>
+          <t>47863</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>27668</t>
+          <t>41603</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>34184</t>
+          <t>54731</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>45,22%</t>
+          <t>42,83%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>40,28%</t>
+          <t>37,22%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>49,76%</t>
+          <t>48,97%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3877,32 +3877,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>50433</t>
+          <t>78862</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>46226</t>
+          <t>71435</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>55842</t>
+          <t>87777</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>39,01%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>43,19%</t>
+          <t>42,21%</t>
         </is>
       </c>
     </row>
@@ -3955,32 +3955,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1339</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>2862</t>
+          <t>5211</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3990,32 +3990,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>1339</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>2763</t>
+          <t>5421</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,61%</t>
         </is>
       </c>
     </row>
@@ -4033,17 +4033,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>60586</t>
+          <t>96171</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>60586</t>
+          <t>96171</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>60586</t>
+          <t>96171</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4068,17 +4068,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>68697</t>
+          <t>111761</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>68697</t>
+          <t>111761</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>68697</t>
+          <t>111761</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4103,17 +4103,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>129283</t>
+          <t>207932</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>129283</t>
+          <t>207932</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>129283</t>
+          <t>207932</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4150,32 +4150,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>8811</t>
+          <t>12233</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>6742</t>
+          <t>9021</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>11568</t>
+          <t>16342</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4185,32 +4185,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>14376</t>
+          <t>21814</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>11422</t>
+          <t>17411</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>17945</t>
+          <t>27688</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4220,32 +4220,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>23188</t>
+          <t>34047</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>19687</t>
+          <t>28165</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>27314</t>
+          <t>41196</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>19,83%</t>
         </is>
       </c>
     </row>
@@ -4263,32 +4263,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>25815</t>
+          <t>41312</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>22608</t>
+          <t>35917</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>28924</t>
+          <t>46797</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>51,11%</t>
+          <t>51,77%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>44,76%</t>
+          <t>45,01%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>57,26%</t>
+          <t>58,64%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4298,32 +4298,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>32385</t>
+          <t>49859</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>28252</t>
+          <t>43087</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>35904</t>
+          <t>56349</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>38,97%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>33,68%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>44,67%</t>
+          <t>44,05%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4333,32 +4333,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>58200</t>
+          <t>91170</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>53507</t>
+          <t>81796</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>63479</t>
+          <t>100001</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>44,47%</t>
+          <t>43,89%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>40,88%</t>
+          <t>39,37%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>48,5%</t>
+          <t>48,14%</t>
         </is>
       </c>
     </row>
@@ -4376,32 +4376,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>15670</t>
+          <t>26249</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>12921</t>
+          <t>21303</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>18615</t>
+          <t>32026</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>26,69%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4411,32 +4411,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>31881</t>
+          <t>53775</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>28179</t>
+          <t>47256</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>35954</t>
+          <t>61017</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>42,03%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>44,74%</t>
+          <t>47,69%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4446,32 +4446,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>47551</t>
+          <t>80023</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>42751</t>
+          <t>71417</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>52048</t>
+          <t>88813</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>36,33%</t>
+          <t>38,52%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>39,77%</t>
+          <t>42,75%</t>
         </is>
       </c>
     </row>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -4499,12 +4499,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4524,32 +4524,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1728</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>3249</t>
+          <t>5290</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4559,32 +4559,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>3618</t>
+          <t>5788</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,79%</t>
         </is>
       </c>
     </row>
@@ -4602,17 +4602,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>50514</t>
+          <t>79805</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>50514</t>
+          <t>79805</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>50514</t>
+          <t>79805</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4637,17 +4637,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>80370</t>
+          <t>127933</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>80370</t>
+          <t>127933</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>80370</t>
+          <t>127933</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4672,17 +4672,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>130884</t>
+          <t>207738</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>130884</t>
+          <t>207738</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>130884</t>
+          <t>207738</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4719,32 +4719,32 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>59594</t>
+          <t>111230</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>52866</t>
+          <t>97101</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>65962</t>
+          <t>125334</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -4754,32 +4754,32 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>58887</t>
+          <t>112894</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>52819</t>
+          <t>100444</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>65857</t>
+          <t>128257</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -4789,32 +4789,32 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>118481</t>
+          <t>224124</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>109838</t>
+          <t>204482</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>127039</t>
+          <t>242911</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>15,51%</t>
         </is>
       </c>
     </row>
@@ -4832,32 +4832,32 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>150257</t>
+          <t>315381</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>142428</t>
+          <t>298236</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>158419</t>
+          <t>335956</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>42,65%</t>
+          <t>42,26%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>40,43%</t>
+          <t>39,96%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>44,96%</t>
+          <t>45,01%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4867,32 +4867,32 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>123049</t>
+          <t>237941</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>115419</t>
+          <t>220387</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>131012</t>
+          <t>256085</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>29,02%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>28,07%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>31,86%</t>
+          <t>31,24%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4902,32 +4902,32 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>273306</t>
+          <t>553322</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>261130</t>
+          <t>527627</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>284517</t>
+          <t>582229</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>35,79%</t>
+          <t>35,33%</t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>34,2%</t>
+          <t>33,69%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>37,26%</t>
+          <t>37,18%</t>
         </is>
       </c>
     </row>
@@ -4945,32 +4945,32 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>139874</t>
+          <t>316026</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>132566</t>
+          <t>294632</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>148436</t>
+          <t>334542</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>39,7%</t>
+          <t>42,34%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>39,48%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>42,13%</t>
+          <t>44,82%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4980,32 +4980,32 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>217155</t>
+          <t>447264</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>208457</t>
+          <t>424899</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>225739</t>
+          <t>466665</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>52,8%</t>
+          <t>54,56%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>50,69%</t>
+          <t>51,83%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>54,89%</t>
+          <t>56,92%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5015,32 +5015,32 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>357029</t>
+          <t>763291</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>345395</t>
+          <t>735381</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>369691</t>
+          <t>795400</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>46,76%</t>
+          <t>48,74%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>45,23%</t>
+          <t>46,95%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>48,42%</t>
+          <t>50,79%</t>
         </is>
       </c>
     </row>
@@ -5058,32 +5058,32 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>2595</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>1491</t>
+          <t>1816</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>4501</t>
+          <t>6363</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5093,32 +5093,32 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>12155</t>
+          <t>21719</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>9631</t>
+          <t>16305</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>15390</t>
+          <t>28198</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5128,32 +5128,32 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>14750</t>
+          <t>25424</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>11777</t>
+          <t>19866</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>18464</t>
+          <t>31879</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -5171,17 +5171,17 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>352320</t>
+          <t>746343</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>352320</t>
+          <t>746343</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>352320</t>
+          <t>746343</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5206,17 +5206,17 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5241,17 +5241,17 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>763566</t>
+          <t>1566161</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>763566</t>
+          <t>1566161</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>763566</t>
+          <t>1566161</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -5536,12 +5536,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8151</t>
+          <t>8755</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>42414</t>
+          <t>42290</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -5551,12 +5551,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8244</t>
+          <t>9155</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29755</t>
+          <t>29778</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -5586,12 +5586,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5606,12 +5606,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>22003</t>
+          <t>21981</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>64159</t>
+          <t>63175</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>15,51%</t>
         </is>
       </c>
     </row>
@@ -5649,12 +5649,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32067</t>
+          <t>32845</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76111</t>
+          <t>80707</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5664,12 +5664,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>34,8%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19949</t>
+          <t>20583</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>47477</t>
+          <t>48239</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5699,12 +5699,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5719,12 +5719,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>60531</t>
+          <t>58396</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>114074</t>
+          <t>113884</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5734,12 +5734,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>27,96%</t>
         </is>
       </c>
     </row>
@@ -5762,12 +5762,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>120616</t>
+          <t>116824</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>173659</t>
+          <t>170436</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5777,12 +5777,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>52,0%</t>
+          <t>50,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>74,87%</t>
+          <t>73,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>96380</t>
+          <t>96243</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>132170</t>
+          <t>131018</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5812,12 +5812,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>54,95%</t>
+          <t>54,87%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>75,35%</t>
+          <t>74,7%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -5832,12 +5832,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>228229</t>
+          <t>224943</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>291179</t>
+          <t>290675</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5847,12 +5847,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>56,03%</t>
+          <t>55,22%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>71,48%</t>
+          <t>71,36%</t>
         </is>
       </c>
     </row>
@@ -5875,12 +5875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2505</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34137</t>
+          <t>34068</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5890,12 +5890,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -5910,12 +5910,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4062</t>
+          <t>4184</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24914</t>
+          <t>25685</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5925,12 +5925,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5945,12 +5945,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>10196</t>
+          <t>9813</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>45049</t>
+          <t>47634</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -5960,12 +5960,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>11,69%</t>
         </is>
       </c>
     </row>
@@ -6105,12 +6105,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6365</t>
+          <t>6562</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22836</t>
+          <t>24501</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6120,12 +6120,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -6140,12 +6140,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11812</t>
+          <t>11837</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40721</t>
+          <t>39816</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6155,12 +6155,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -6175,12 +6175,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>23014</t>
+          <t>22767</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>55016</t>
+          <t>55593</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6190,12 +6190,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>10,29%</t>
         </is>
       </c>
     </row>
@@ -6218,12 +6218,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>86818</t>
+          <t>87848</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>128009</t>
+          <t>127134</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -6233,12 +6233,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>38,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,85%</t>
+          <t>55,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -6253,12 +6253,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>66189</t>
+          <t>66497</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>214387</t>
+          <t>215409</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -6268,12 +6268,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>68,86%</t>
+          <t>69,19%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -6288,12 +6288,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>178448</t>
+          <t>178287</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>344720</t>
+          <t>340117</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -6303,12 +6303,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>32,98%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>63,78%</t>
+          <t>62,92%</t>
         </is>
       </c>
     </row>
@@ -6331,12 +6331,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84610</t>
+          <t>85206</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>124250</t>
+          <t>123482</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -6346,12 +6346,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>37,17%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>54,21%</t>
+          <t>53,87%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -6366,12 +6366,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76792</t>
+          <t>76078</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>200382</t>
+          <t>198689</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -6381,12 +6381,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>64,36%</t>
+          <t>63,82%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -6401,12 +6401,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>166544</t>
+          <t>166241</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>300178</t>
+          <t>301332</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -6416,12 +6416,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>30,76%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>55,53%</t>
+          <t>55,75%</t>
         </is>
       </c>
     </row>
@@ -6444,12 +6444,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12644</t>
+          <t>13854</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -6479,12 +6479,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4004</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>19208</t>
+          <t>20317</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6494,12 +6494,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -6514,12 +6514,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>7375</t>
+          <t>7236</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>25597</t>
+          <t>26307</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -6529,12 +6529,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -6674,12 +6674,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27689</t>
+          <t>27916</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>51876</t>
+          <t>53413</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6689,12 +6689,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6709,12 +6709,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>41089</t>
+          <t>40968</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>62758</t>
+          <t>62877</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6724,12 +6724,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6744,12 +6744,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>74602</t>
+          <t>74531</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>108149</t>
+          <t>106802</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6759,12 +6759,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>17,06%</t>
         </is>
       </c>
     </row>
@@ -6787,12 +6787,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>119257</t>
+          <t>118154</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>154990</t>
+          <t>154564</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6802,12 +6802,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,91%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>50,57%</t>
+          <t>50,43%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -6822,12 +6822,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>65498</t>
+          <t>65367</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>90556</t>
+          <t>92321</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6837,12 +6837,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>28,88%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -6857,12 +6857,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>192186</t>
+          <t>193285</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>236121</t>
+          <t>236248</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -6872,12 +6872,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>37,71%</t>
+          <t>37,73%</t>
         </is>
       </c>
     </row>
@@ -6900,12 +6900,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>112754</t>
+          <t>114494</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>149912</t>
+          <t>151215</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -6915,12 +6915,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>36,79%</t>
+          <t>37,36%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>48,91%</t>
+          <t>49,34%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6935,12 +6935,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>171316</t>
+          <t>168124</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>200779</t>
+          <t>198121</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6950,12 +6950,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>53,6%</t>
+          <t>52,6%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>62,82%</t>
+          <t>61,99%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6970,12 +6970,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>292840</t>
+          <t>293065</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>340136</t>
+          <t>339739</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6985,12 +6985,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>46,77%</t>
+          <t>46,81%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>54,32%</t>
+          <t>54,26%</t>
         </is>
       </c>
     </row>
@@ -7048,12 +7048,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2952</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>11033</t>
+          <t>11674</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -7063,12 +7063,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -7083,12 +7083,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>3482</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>12072</t>
+          <t>12381</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -7098,12 +7098,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -7243,12 +7243,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>110632</t>
+          <t>110911</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>499075</t>
+          <t>517091</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -7258,12 +7258,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>80,55%</t>
+          <t>83,45%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -7278,12 +7278,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>53384</t>
+          <t>54350</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>77221</t>
+          <t>77480</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -7293,12 +7293,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -7313,12 +7313,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>172012</t>
+          <t>170358</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>686565</t>
+          <t>708433</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -7328,12 +7328,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>67,68%</t>
+          <t>69,83%</t>
         </is>
       </c>
     </row>
@@ -7356,12 +7356,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>76558</t>
+          <t>65825</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>325365</t>
+          <t>323261</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -7371,12 +7371,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>52,51%</t>
+          <t>52,17%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -7391,12 +7391,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>126381</t>
+          <t>125315</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>158999</t>
+          <t>158322</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -7406,12 +7406,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>31,73%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>40,26%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -7426,12 +7426,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>176105</t>
+          <t>159715</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>446170</t>
+          <t>445170</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -7441,12 +7441,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>43,98%</t>
+          <t>43,88%</t>
         </is>
       </c>
     </row>
@@ -7469,12 +7469,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>43354</t>
+          <t>36099</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>192892</t>
+          <t>197114</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7484,12 +7484,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>31,81%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -7504,12 +7504,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>166789</t>
+          <t>165143</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>198369</t>
+          <t>197292</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -7519,12 +7519,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>42,24%</t>
+          <t>41,82%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>50,23%</t>
+          <t>49,96%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -7539,12 +7539,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>147531</t>
+          <t>136924</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>398296</t>
+          <t>400837</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -7554,12 +7554,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>39,26%</t>
+          <t>39,51%</t>
         </is>
       </c>
     </row>
@@ -7617,12 +7617,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>3506</t>
+          <t>3328</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>12252</t>
+          <t>12335</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -7632,12 +7632,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>2746</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>12093</t>
+          <t>12734</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -7667,12 +7667,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -7812,12 +7812,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>69170</t>
+          <t>68602</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>98037</t>
+          <t>96710</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -7827,12 +7827,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>29,21%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -7847,12 +7847,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>53140</t>
+          <t>52673</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>74999</t>
+          <t>74997</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
@@ -7882,12 +7882,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>129670</t>
+          <t>128540</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>167463</t>
+          <t>166473</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -7897,12 +7897,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>25,89%</t>
         </is>
       </c>
     </row>
@@ -7925,12 +7925,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>154837</t>
+          <t>156967</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>192270</t>
+          <t>190300</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>46,76%</t>
+          <t>47,41%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>58,07%</t>
+          <t>57,47%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7960,12 +7960,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>113429</t>
+          <t>110793</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>140662</t>
+          <t>137243</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7975,12 +7975,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>36,38%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>45,11%</t>
+          <t>44,01%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -7995,12 +7995,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>276813</t>
+          <t>276164</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>319724</t>
+          <t>319057</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -8010,12 +8010,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>42,95%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>49,73%</t>
+          <t>49,63%</t>
         </is>
       </c>
     </row>
@@ -8038,12 +8038,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>60128</t>
+          <t>60522</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>87838</t>
+          <t>90271</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -8053,12 +8053,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -8073,12 +8073,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>103545</t>
+          <t>103189</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>130365</t>
+          <t>131040</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -8088,12 +8088,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>33,09%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>41,81%</t>
+          <t>42,02%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -8108,12 +8108,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>172751</t>
+          <t>172815</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>210471</t>
+          <t>210372</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -8123,12 +8123,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>32,74%</t>
+          <t>32,72%</t>
         </is>
       </c>
     </row>
@@ -8156,7 +8156,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5439</t>
+          <t>5442</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -8186,12 +8186,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2515</t>
+          <t>2573</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>9750</t>
+          <t>9915</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -8201,12 +8201,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -8221,12 +8221,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>2878</t>
+          <t>3087</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>11545</t>
+          <t>12100</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -8236,12 +8236,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,88%</t>
         </is>
       </c>
     </row>
@@ -8381,12 +8381,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>32780</t>
+          <t>33261</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>52112</t>
+          <t>52460</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -8396,12 +8396,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -8416,12 +8416,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>104065</t>
+          <t>104400</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>382030</t>
+          <t>378763</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -8431,12 +8431,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>86,72%</t>
+          <t>85,98%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -8451,12 +8451,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>142289</t>
+          <t>141913</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>506174</t>
+          <t>527956</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -8466,12 +8466,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>78,93%</t>
+          <t>82,33%</t>
         </is>
       </c>
     </row>
@@ -8494,12 +8494,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>98251</t>
+          <t>98322</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>121630</t>
+          <t>121302</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -8509,12 +8509,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>48,97%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>60,58%</t>
+          <t>60,41%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -8529,12 +8529,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>36361</t>
+          <t>37498</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>207589</t>
+          <t>210576</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -8544,12 +8544,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>47,12%</t>
+          <t>47,8%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -8564,12 +8564,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>86167</t>
+          <t>71079</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>329152</t>
+          <t>328615</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -8579,12 +8579,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>51,33%</t>
+          <t>51,24%</t>
         </is>
       </c>
     </row>
@@ -8607,12 +8607,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>35009</t>
+          <t>35634</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>54671</t>
+          <t>54751</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -8622,12 +8622,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>27,27%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -8642,12 +8642,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>22226</t>
+          <t>21859</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>132691</t>
+          <t>131295</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -8657,12 +8657,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>29,81%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -8677,12 +8677,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>41649</t>
+          <t>37407</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>170551</t>
+          <t>172457</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -8692,12 +8692,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>26,89%</t>
         </is>
       </c>
     </row>
@@ -8720,12 +8720,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>1869</t>
+          <t>1527</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>8540</t>
+          <t>8705</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -8735,12 +8735,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -8760,7 +8760,7 @@
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>3452</t>
+          <t>3372</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -8790,12 +8790,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>1062</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>10026</t>
+          <t>9650</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -8805,12 +8805,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,5%</t>
         </is>
       </c>
     </row>
@@ -8950,12 +8950,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>14343</t>
+          <t>14454</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>28294</t>
+          <t>27175</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -8965,12 +8965,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -8985,12 +8985,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>38801</t>
+          <t>37944</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>56920</t>
+          <t>55950</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -9000,12 +9000,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>27,24%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -9020,12 +9020,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>56171</t>
+          <t>57009</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>78993</t>
+          <t>80100</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -9035,12 +9035,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>23,05%</t>
         </is>
       </c>
     </row>
@@ -9063,12 +9063,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>74133</t>
+          <t>75282</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>91904</t>
+          <t>93844</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -9078,12 +9078,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>52,17%</t>
+          <t>52,98%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>64,68%</t>
+          <t>66,04%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -9098,12 +9098,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>91140</t>
+          <t>91855</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>110648</t>
+          <t>112587</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -9113,12 +9113,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>44,37%</t>
+          <t>44,72%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>53,86%</t>
+          <t>54,81%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -9133,12 +9133,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>170226</t>
+          <t>171725</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>199117</t>
+          <t>199446</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -9148,12 +9148,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>48,98%</t>
+          <t>49,42%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>57,3%</t>
+          <t>57,39%</t>
         </is>
       </c>
     </row>
@@ -9176,12 +9176,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>28852</t>
+          <t>28287</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>45163</t>
+          <t>44693</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -9191,12 +9191,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -9211,12 +9211,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>46611</t>
+          <t>46402</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>64075</t>
+          <t>65183</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -9226,12 +9226,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>31,19%</t>
+          <t>31,73%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -9246,12 +9246,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>79065</t>
+          <t>79186</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>104523</t>
+          <t>105094</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -9261,12 +9261,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>30,24%</t>
         </is>
       </c>
     </row>
@@ -9294,7 +9294,7 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>4987</t>
+          <t>5283</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -9309,7 +9309,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -9324,12 +9324,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>518</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>4793</t>
+          <t>4545</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -9344,7 +9344,7 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -9359,12 +9359,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1154</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>7074</t>
+          <t>7599</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,19%</t>
         </is>
       </c>
     </row>
@@ -9519,12 +9519,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>320841</t>
+          <t>320661</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>1164808</t>
+          <t>1036573</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -9534,12 +9534,12 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>56,51%</t>
+          <t>50,29%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -9554,12 +9554,12 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>350380</t>
+          <t>350716</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>1000006</t>
+          <t>1003089</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -9569,12 +9569,12 @@
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>46,32%</t>
+          <t>46,46%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -9589,12 +9589,12 @@
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>704948</t>
+          <t>693946</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>1700796</t>
+          <t>1678644</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -9604,12 +9604,12 @@
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>39,78%</t>
         </is>
       </c>
     </row>
@@ -9632,12 +9632,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>507926</t>
+          <t>578348</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>981723</t>
+          <t>985378</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -9647,12 +9647,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>24,64%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>47,63%</t>
+          <t>47,81%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -9667,12 +9667,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>513012</t>
+          <t>532490</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>847100</t>
+          <t>850047</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -9682,12 +9682,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>39,37%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -9702,12 +9702,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>1265282</t>
+          <t>1265005</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>1765084</t>
+          <t>1772622</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -9717,12 +9717,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>42,0%</t>
         </is>
       </c>
     </row>
@@ -9745,12 +9745,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>377217</t>
+          <t>436404</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>749644</t>
+          <t>751913</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -9780,12 +9780,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>618805</t>
+          <t>639352</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>991774</t>
+          <t>991254</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -9795,12 +9795,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>29,61%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>45,94%</t>
+          <t>45,91%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -9815,12 +9815,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>1192815</t>
+          <t>1226567</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>1688435</t>
+          <t>1691523</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -9830,12 +9830,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>29,06%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>40,01%</t>
+          <t>40,08%</t>
         </is>
       </c>
     </row>
@@ -9858,12 +9858,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>11135</t>
+          <t>11203</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>49025</t>
+          <t>50891</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -9878,7 +9878,7 @@
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -9893,12 +9893,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>28683</t>
+          <t>28278</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>59945</t>
+          <t>59487</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -9908,12 +9908,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -9928,12 +9928,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>45384</t>
+          <t>46473</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>95706</t>
+          <t>90293</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -9943,12 +9943,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,14%</t>
         </is>
       </c>
     </row>
@@ -15126,12 +15126,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5291</t>
+          <t>5605</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -15141,12 +15141,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -15161,12 +15161,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>2060</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8146</t>
+          <t>8037</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -15176,12 +15176,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -15196,12 +15196,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>3912</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>10984</t>
+          <t>11920</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -15211,12 +15211,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>10,18%</t>
         </is>
       </c>
     </row>
@@ -15239,12 +15239,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7557</t>
+          <t>7166</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15945</t>
+          <t>15592</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -15254,12 +15254,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -15274,12 +15274,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3521</t>
+          <t>4120</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10888</t>
+          <t>11276</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -15289,12 +15289,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -15309,12 +15309,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>12450</t>
+          <t>12915</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>23612</t>
+          <t>23122</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -15324,12 +15324,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>19,76%</t>
         </is>
       </c>
     </row>
@@ -15352,12 +15352,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>36241</t>
+          <t>36974</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>45826</t>
+          <t>46610</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -15367,12 +15367,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>61,19%</t>
+          <t>62,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>77,38%</t>
+          <t>78,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -15387,12 +15387,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>35345</t>
+          <t>35139</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>44932</t>
+          <t>44851</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -15402,12 +15402,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>61,13%</t>
+          <t>60,78%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>77,71%</t>
+          <t>77,57%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -15422,12 +15422,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>75097</t>
+          <t>74910</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>88953</t>
+          <t>88183</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -15437,12 +15437,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>64,16%</t>
+          <t>64,0%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>76,0%</t>
+          <t>75,34%</t>
         </is>
       </c>
     </row>
@@ -15465,12 +15465,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2069</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6850</t>
+          <t>7206</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -15480,12 +15480,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -15500,12 +15500,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3736</t>
+          <t>3630</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11909</t>
+          <t>11084</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -15515,12 +15515,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -15535,12 +15535,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>7033</t>
+          <t>6720</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>15597</t>
+          <t>15897</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -15550,12 +15550,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>13,58%</t>
         </is>
       </c>
     </row>
@@ -15695,12 +15695,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8583</t>
+          <t>8651</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19048</t>
+          <t>19286</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -15710,12 +15710,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -15730,12 +15730,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6005</t>
+          <t>5785</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14957</t>
+          <t>14464</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -15745,12 +15745,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -15765,12 +15765,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>16872</t>
+          <t>16093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>30467</t>
+          <t>30191</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -15780,12 +15780,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>12,68%</t>
         </is>
       </c>
     </row>
@@ -15808,12 +15808,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34193</t>
+          <t>33545</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>49395</t>
+          <t>48935</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -15823,12 +15823,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>42,18%</t>
+          <t>41,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -15843,12 +15843,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18871</t>
+          <t>19424</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>33098</t>
+          <t>33226</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -15858,12 +15858,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>27,47%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -15878,12 +15878,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>56724</t>
+          <t>57127</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>77686</t>
+          <t>78509</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -15893,12 +15893,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>32,98%</t>
         </is>
       </c>
     </row>
@@ -15921,12 +15921,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54066</t>
+          <t>54075</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>69370</t>
+          <t>69958</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -15936,12 +15936,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,17%</t>
+          <t>46,18%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>59,24%</t>
+          <t>59,74%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -15956,12 +15956,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>69230</t>
+          <t>68246</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>85580</t>
+          <t>84672</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -15971,12 +15971,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>57,25%</t>
+          <t>56,43%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>70,77%</t>
+          <t>70,02%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -15991,12 +15991,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>126819</t>
+          <t>126636</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>149877</t>
+          <t>149535</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -16006,12 +16006,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>53,28%</t>
+          <t>53,2%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>62,96%</t>
+          <t>62,82%</t>
         </is>
       </c>
     </row>
@@ -16034,12 +16034,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>177</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4134</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -16054,7 +16054,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -16069,12 +16069,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>4793</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>13324</t>
+          <t>12868</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -16084,12 +16084,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -16104,12 +16104,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>5942</t>
+          <t>5624</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>14799</t>
+          <t>15262</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -16119,12 +16119,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,41%</t>
         </is>
       </c>
     </row>
@@ -16264,12 +16264,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16995</t>
+          <t>17456</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>34090</t>
+          <t>34372</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -16279,12 +16279,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -16299,12 +16299,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>14733</t>
+          <t>14878</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>29475</t>
+          <t>30107</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -16314,12 +16314,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -16334,12 +16334,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>35957</t>
+          <t>34567</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>57333</t>
+          <t>56693</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -16349,12 +16349,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>21,48%</t>
         </is>
       </c>
     </row>
@@ -16377,12 +16377,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>41478</t>
+          <t>40127</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>59066</t>
+          <t>57731</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -16392,12 +16392,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>42,84%</t>
+          <t>41,87%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -16412,12 +16412,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17869</t>
+          <t>18390</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>30485</t>
+          <t>31016</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -16427,12 +16427,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>24,6%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -16447,12 +16447,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>62724</t>
+          <t>61818</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>83573</t>
+          <t>83912</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -16462,12 +16462,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>31,79%</t>
         </is>
       </c>
     </row>
@@ -16490,12 +16490,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>53055</t>
+          <t>54013</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>72904</t>
+          <t>72629</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -16505,12 +16505,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>38,48%</t>
+          <t>39,18%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>52,88%</t>
+          <t>52,68%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -16525,12 +16525,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>64565</t>
+          <t>64815</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>81193</t>
+          <t>81659</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -16540,12 +16540,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>51,21%</t>
+          <t>51,4%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>64,39%</t>
+          <t>64,76%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -16560,12 +16560,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>125000</t>
+          <t>123949</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>149281</t>
+          <t>149291</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -16575,12 +16575,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>47,36%</t>
+          <t>46,96%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>56,55%</t>
+          <t>56,56%</t>
         </is>
       </c>
     </row>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8312</t>
+          <t>8056</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -16623,7 +16623,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -16638,12 +16638,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4471</t>
+          <t>4372</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12525</t>
+          <t>12519</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -16653,7 +16653,7 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
@@ -16673,12 +16673,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>5082</t>
+          <t>5357</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>16055</t>
+          <t>15355</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -16688,12 +16688,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>5,82%</t>
         </is>
       </c>
     </row>
@@ -16833,12 +16833,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21140</t>
+          <t>21043</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>39356</t>
+          <t>38919</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -16848,12 +16848,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>34,13%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -16868,12 +16868,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10988</t>
+          <t>10762</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>21043</t>
+          <t>20598</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -16883,12 +16883,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -16903,12 +16903,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>35156</t>
+          <t>35111</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>55744</t>
+          <t>56155</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -16918,12 +16918,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>24,32%</t>
         </is>
       </c>
     </row>
@@ -16946,12 +16946,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>36430</t>
+          <t>36137</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>51906</t>
+          <t>52228</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -16961,12 +16961,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>31,34%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>45,02%</t>
+          <t>45,29%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -16981,12 +16981,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>20925</t>
+          <t>21337</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>35091</t>
+          <t>36310</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -16996,12 +16996,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>18,46%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -17016,12 +17016,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>60302</t>
+          <t>61771</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>81330</t>
+          <t>82302</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -17031,12 +17031,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>35,65%</t>
         </is>
       </c>
     </row>
@@ -17059,12 +17059,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>32281</t>
+          <t>31499</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>47622</t>
+          <t>47168</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -17074,12 +17074,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>41,3%</t>
+          <t>40,91%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -17094,12 +17094,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>60227</t>
+          <t>58289</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>75312</t>
+          <t>74361</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -17109,12 +17109,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>52,12%</t>
+          <t>50,44%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>65,17%</t>
+          <t>64,34%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -17129,12 +17129,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>95549</t>
+          <t>95922</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>119235</t>
+          <t>117305</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -17144,12 +17144,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>41,39%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>51,65%</t>
+          <t>50,81%</t>
         </is>
       </c>
     </row>
@@ -17172,12 +17172,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>695</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12013</t>
+          <t>11979</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -17187,12 +17187,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -17207,12 +17207,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>9462</t>
+          <t>9809</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -17222,12 +17222,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -17242,12 +17242,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>4756</t>
+          <t>4999</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>16803</t>
+          <t>18517</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -17257,12 +17257,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>8,02%</t>
         </is>
       </c>
     </row>
@@ -17402,12 +17402,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>16025</t>
+          <t>15823</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>27527</t>
+          <t>27523</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -17417,7 +17417,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -17437,12 +17437,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>18934</t>
+          <t>19132</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>31504</t>
+          <t>32665</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -17452,12 +17452,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>28,73%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -17472,12 +17472,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>37928</t>
+          <t>38421</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>55050</t>
+          <t>55161</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -17487,12 +17487,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>26,82%</t>
         </is>
       </c>
     </row>
@@ -17515,12 +17515,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>38396</t>
+          <t>38226</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>53469</t>
+          <t>54232</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -17530,12 +17530,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>40,01%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>55,71%</t>
+          <t>56,51%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -17550,12 +17550,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>27128</t>
+          <t>27843</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>40503</t>
+          <t>41282</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -17565,12 +17565,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>36,93%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -17585,12 +17585,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>68879</t>
+          <t>69687</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>90726</t>
+          <t>90439</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -17600,12 +17600,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>33,5%</t>
+          <t>33,89%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>44,12%</t>
+          <t>43,98%</t>
         </is>
       </c>
     </row>
@@ -17628,12 +17628,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>21261</t>
+          <t>21498</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>35742</t>
+          <t>36259</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -17643,12 +17643,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>37,24%</t>
+          <t>37,78%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -17663,12 +17663,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>41987</t>
+          <t>41895</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>57002</t>
+          <t>56962</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -17678,12 +17678,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>38,28%</t>
+          <t>38,2%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>51,98%</t>
+          <t>51,94%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -17698,12 +17698,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>67670</t>
+          <t>67887</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>88698</t>
+          <t>87482</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -17713,12 +17713,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>32,91%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>43,13%</t>
+          <t>42,54%</t>
         </is>
       </c>
     </row>
@@ -17746,7 +17746,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>3537</t>
+          <t>3412</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -17761,7 +17761,7 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -17776,12 +17776,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>456</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>5295</t>
+          <t>5135</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -17791,12 +17791,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -17811,12 +17811,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>683</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>6312</t>
+          <t>6810</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -17831,7 +17831,7 @@
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -17971,12 +17971,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>14748</t>
+          <t>15167</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>26305</t>
+          <t>26159</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -17986,12 +17986,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -18006,12 +18006,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>8017</t>
+          <t>7736</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>16421</t>
+          <t>15855</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -18021,12 +18021,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -18041,12 +18041,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>24507</t>
+          <t>24989</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>39444</t>
+          <t>38761</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -18056,12 +18056,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>26,65%</t>
         </is>
       </c>
     </row>
@@ -18084,12 +18084,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>23245</t>
+          <t>23742</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>35287</t>
+          <t>35503</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -18099,12 +18099,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>35,22%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>53,47%</t>
+          <t>53,8%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -18119,12 +18119,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>24840</t>
+          <t>25151</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>37850</t>
+          <t>38010</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -18134,12 +18134,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>31,66%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>47,64%</t>
+          <t>47,84%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -18154,12 +18154,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>51925</t>
+          <t>51809</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>68691</t>
+          <t>69409</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -18169,12 +18169,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>35,7%</t>
+          <t>35,62%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>47,23%</t>
+          <t>47,72%</t>
         </is>
       </c>
     </row>
@@ -18197,12 +18197,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>12636</t>
+          <t>12400</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>22979</t>
+          <t>22570</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -18212,12 +18212,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>34,2%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -18232,12 +18232,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>28433</t>
+          <t>27355</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>40852</t>
+          <t>39900</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -18247,12 +18247,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>35,79%</t>
+          <t>34,43%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>51,42%</t>
+          <t>50,22%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -18267,12 +18267,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>43149</t>
+          <t>42346</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>59411</t>
+          <t>59703</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -18282,12 +18282,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>29,67%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>41,05%</t>
         </is>
       </c>
     </row>
@@ -18345,12 +18345,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>1339</t>
+          <t>1373</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>5560</t>
+          <t>5421</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -18360,12 +18360,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -18380,12 +18380,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>1470</t>
+          <t>1409</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>5848</t>
+          <t>5549</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -18395,12 +18395,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,82%</t>
         </is>
       </c>
     </row>
@@ -18540,12 +18540,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>3873</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>11144</t>
+          <t>10844</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -18555,12 +18555,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -18575,12 +18575,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>15393</t>
+          <t>15198</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>28278</t>
+          <t>28266</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -18590,12 +18590,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>31,2%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -18610,12 +18610,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>20783</t>
+          <t>21070</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>36244</t>
+          <t>35751</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -18625,12 +18625,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>23,58%</t>
         </is>
       </c>
     </row>
@@ -18653,12 +18653,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>27269</t>
+          <t>26877</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>38587</t>
+          <t>37692</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -18668,12 +18668,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>44,07%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>63,27%</t>
+          <t>61,8%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -18688,12 +18688,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>26444</t>
+          <t>26837</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>39684</t>
+          <t>40292</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -18703,12 +18703,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>29,61%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>43,79%</t>
+          <t>44,46%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -18723,12 +18723,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>56340</t>
+          <t>56900</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>74944</t>
+          <t>74414</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -18738,12 +18738,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>37,16%</t>
+          <t>37,53%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>49,43%</t>
+          <t>49,08%</t>
         </is>
       </c>
     </row>
@@ -18766,12 +18766,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>15258</t>
+          <t>15246</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>25394</t>
+          <t>25564</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -18781,12 +18781,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>25,0%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>41,64%</t>
+          <t>41,91%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -18801,12 +18801,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>25108</t>
+          <t>25589</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>38384</t>
+          <t>38700</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -18816,12 +18816,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>28,24%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>42,35%</t>
+          <t>42,7%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -18836,12 +18836,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>43759</t>
+          <t>43454</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>61324</t>
+          <t>61721</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -18851,12 +18851,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>40,45%</t>
+          <t>40,71%</t>
         </is>
       </c>
     </row>
@@ -18879,12 +18879,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>433</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>4741</t>
+          <t>5830</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -18894,12 +18894,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -18914,12 +18914,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>1883</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>10466</t>
+          <t>11711</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -18929,12 +18929,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -18949,12 +18949,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>2941</t>
+          <t>3044</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>12103</t>
+          <t>12524</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -18964,12 +18964,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,26%</t>
         </is>
       </c>
     </row>
@@ -19109,12 +19109,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>99700</t>
+          <t>101770</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>133832</t>
+          <t>134529</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -19144,12 +19144,12 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>92928</t>
+          <t>93867</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>124975</t>
+          <t>123482</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -19159,12 +19159,12 @@
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -19179,12 +19179,12 @@
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>201325</t>
+          <t>201179</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>244759</t>
+          <t>246963</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -19194,12 +19194,12 @@
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>18,26%</t>
         </is>
       </c>
     </row>
@@ -19222,12 +19222,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>234838</t>
+          <t>233210</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>274464</t>
+          <t>272195</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -19237,12 +19237,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>35,99%</t>
+          <t>35,74%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>42,07%</t>
+          <t>41,72%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -19257,12 +19257,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>163445</t>
+          <t>166349</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>199995</t>
+          <t>200124</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -19272,12 +19272,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>28,58%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -19292,12 +19292,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>410643</t>
+          <t>408527</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>457793</t>
+          <t>459707</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -19307,12 +19307,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>33,85%</t>
+          <t>33,99%</t>
         </is>
       </c>
     </row>
@@ -19335,12 +19335,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>251253</t>
+          <t>253324</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>288649</t>
+          <t>290571</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -19350,12 +19350,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>38,83%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>44,24%</t>
+          <t>44,54%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -19370,12 +19370,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>355074</t>
+          <t>354904</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>394775</t>
+          <t>393455</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -19385,12 +19385,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>50,71%</t>
+          <t>50,69%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>56,38%</t>
+          <t>56,2%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -19405,12 +19405,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>620119</t>
+          <t>616712</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>672511</t>
+          <t>671072</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -19420,12 +19420,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>45,85%</t>
+          <t>45,59%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>49,72%</t>
+          <t>49,61%</t>
         </is>
       </c>
     </row>
@@ -19448,12 +19448,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>7393</t>
+          <t>7528</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>21116</t>
+          <t>22850</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -19463,12 +19463,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -19483,12 +19483,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>29321</t>
+          <t>29750</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>47586</t>
+          <t>47032</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -19498,12 +19498,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -19518,12 +19518,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>39488</t>
+          <t>39713</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>61715</t>
+          <t>62774</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -19533,12 +19533,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,64%</t>
         </is>
       </c>
     </row>
